--- a/server/data/Направления подготовки.xlsx
+++ b/server/data/Направления подготовки.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PyProj\NIR_Engoyan\server\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\NIR_Engoyan\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1FF998-3007-49A9-8866-FDD640FD138C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA158F79-DB04-4C93-8DE4-40F221D6F1B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3216" windowWidth="22968" windowHeight="12120" xr2:uid="{F5E57E83-7C93-416E-B820-9355CF16C0C7}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{F5E57E83-7C93-416E-B820-9355CF16C0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="855">
   <si>
     <t>fieldid</t>
   </si>
@@ -2584,6 +2584,12 @@
   </si>
   <si>
     <t>progid</t>
+  </si>
+  <si>
+    <t>Фундаментальная и прикладная биология</t>
+  </si>
+  <si>
+    <t>06.05.02</t>
   </si>
 </sst>
 </file>
@@ -2944,15 +2950,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C091119-F488-418F-8352-7FF444EA1CCE}">
-  <dimension ref="A1:C513"/>
+  <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.69921875" customWidth="1"/>
+    <col min="2" max="2" width="124.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3507,21 +3514,21 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>626</v>
+        <v>854</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>853</v>
       </c>
       <c r="C51">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52">
         <v>62</v>
@@ -3529,10 +3536,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>62</v>
@@ -3540,10 +3547,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54">
         <v>62</v>
@@ -3551,21 +3558,21 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C55">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <v>68</v>
@@ -3573,10 +3580,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>68</v>
@@ -3584,10 +3591,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58">
         <v>68</v>
@@ -3595,43 +3602,43 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B60" t="s">
         <v>34</v>
       </c>
       <c r="C60">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>65</v>
@@ -3639,21 +3646,21 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>62</v>
@@ -3661,10 +3668,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65">
         <v>62</v>
@@ -3672,10 +3679,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66">
         <v>62</v>
@@ -3683,21 +3690,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C67">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68">
         <v>68</v>
@@ -3705,10 +3712,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3716,10 +3723,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70">
         <v>68</v>
@@ -3727,54 +3734,54 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
       </c>
       <c r="C73">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75">
         <v>65</v>
@@ -3782,10 +3789,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76">
         <v>65</v>
@@ -3793,10 +3800,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C77">
         <v>65</v>
@@ -3804,10 +3811,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C78">
         <v>65</v>
@@ -3815,10 +3822,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79">
         <v>65</v>
@@ -3826,10 +3833,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80">
         <v>65</v>
@@ -3837,21 +3844,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82">
         <v>62</v>
@@ -3859,10 +3866,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83">
         <v>62</v>
@@ -3870,10 +3877,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84">
         <v>62</v>
@@ -3881,21 +3888,21 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C85">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C86">
         <v>68</v>
@@ -3903,10 +3910,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87">
         <v>68</v>
@@ -3914,10 +3921,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88">
         <v>68</v>
@@ -3925,21 +3932,21 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C90">
         <v>65</v>
@@ -3947,10 +3954,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C91">
         <v>65</v>
@@ -3958,10 +3965,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92">
         <v>65</v>
@@ -3969,21 +3976,21 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C93">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C94">
         <v>62</v>
@@ -3991,10 +3998,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C95">
         <v>62</v>
@@ -4002,10 +4009,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C96">
         <v>62</v>
@@ -4013,10 +4020,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C97">
         <v>62</v>
@@ -4024,21 +4031,21 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C98">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C99">
         <v>68</v>
@@ -4046,10 +4053,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C100">
         <v>68</v>
@@ -4057,10 +4064,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C101">
         <v>68</v>
@@ -4068,10 +4075,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C102">
         <v>68</v>
@@ -4079,32 +4086,32 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C103">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C104">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105">
         <v>62</v>
@@ -4112,10 +4119,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C106">
         <v>62</v>
@@ -4123,21 +4130,21 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C107">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C108">
         <v>68</v>
@@ -4145,10 +4152,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C109">
         <v>68</v>
@@ -4156,21 +4163,21 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C110">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C111">
         <v>65</v>
@@ -4178,21 +4185,21 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C112">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C113">
         <v>62</v>
@@ -4200,21 +4207,21 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C114">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C115">
         <v>68</v>
@@ -4222,21 +4229,21 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C116">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C117">
         <v>65</v>
@@ -4244,10 +4251,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C118">
         <v>65</v>
@@ -4255,10 +4262,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C119">
         <v>65</v>
@@ -4266,21 +4273,21 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C120">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C121">
         <v>62</v>
@@ -4288,10 +4295,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C122">
         <v>62</v>
@@ -4299,10 +4306,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C123">
         <v>62</v>
@@ -4310,10 +4317,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C124">
         <v>62</v>
@@ -4321,10 +4328,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C125">
         <v>62</v>
@@ -4332,21 +4339,21 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C126">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C127">
         <v>68</v>
@@ -4354,10 +4361,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C128">
         <v>68</v>
@@ -4365,10 +4372,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C129">
         <v>68</v>
@@ -4376,10 +4383,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C130">
         <v>68</v>
@@ -4387,10 +4394,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B131" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C131">
         <v>68</v>
@@ -4398,21 +4405,21 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C132">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C133">
         <v>65</v>
@@ -4420,21 +4427,21 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C134">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B135" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C135">
         <v>62</v>
@@ -4442,10 +4449,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C136">
         <v>62</v>
@@ -4453,21 +4460,21 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C137">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B138" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C138">
         <v>68</v>
@@ -4475,10 +4482,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C139">
         <v>68</v>
@@ -4486,54 +4493,54 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B140" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C140">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B141" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C141">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B142" t="s">
         <v>87</v>
       </c>
       <c r="C142">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B143" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C143">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B144" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C144">
         <v>65</v>
@@ -4541,10 +4548,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C145">
         <v>65</v>
@@ -4552,10 +4559,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B146" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C146">
         <v>65</v>
@@ -4563,21 +4570,21 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C147">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C148">
         <v>62</v>
@@ -4585,21 +4592,21 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B149" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C149">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C150">
         <v>68</v>
@@ -4607,21 +4614,21 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B151" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C151">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B152" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C152">
         <v>65</v>
@@ -4629,21 +4636,21 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B153" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C153">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B154" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C154">
         <v>62</v>
@@ -4651,10 +4658,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C155">
         <v>62</v>
@@ -4662,10 +4669,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B156" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C156">
         <v>62</v>
@@ -4673,21 +4680,21 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B157" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C157">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B158" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C158">
         <v>68</v>
@@ -4695,10 +4702,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B159" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C159">
         <v>68</v>
@@ -4706,10 +4713,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B160" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160">
         <v>68</v>
@@ -4717,10 +4724,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C161">
         <v>68</v>
@@ -4728,21 +4735,21 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B162" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C162">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B163" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C163">
         <v>62</v>
@@ -4750,21 +4757,21 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B164" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C164">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B165" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C165">
         <v>68</v>
@@ -4772,32 +4779,32 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B166" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C166">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B167" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C167">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B168" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C168">
         <v>62</v>
@@ -4805,10 +4812,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B169" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C169">
         <v>62</v>
@@ -4816,21 +4823,21 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B170" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C170">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C171">
         <v>68</v>
@@ -4838,10 +4845,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C172">
         <v>68</v>
@@ -4849,21 +4856,21 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B173" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C173">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B174" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C174">
         <v>65</v>
@@ -4871,10 +4878,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B175" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C175">
         <v>65</v>
@@ -4882,10 +4889,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B176" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C176">
         <v>65</v>
@@ -4893,10 +4900,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B177" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C177">
         <v>65</v>
@@ -4904,10 +4911,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B178" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C178">
         <v>65</v>
@@ -4915,21 +4922,21 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B179" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C179">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B180" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C180">
         <v>62</v>
@@ -4937,21 +4944,21 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B181" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C181">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B182" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C182">
         <v>68</v>
@@ -4959,21 +4966,21 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B183" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C183">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B184" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C184">
         <v>62</v>
@@ -4981,10 +4988,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B185" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C185">
         <v>62</v>
@@ -4992,21 +4999,21 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B186" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C186">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B187" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C187">
         <v>68</v>
@@ -5014,10 +5021,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B188" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C188">
         <v>68</v>
@@ -5025,21 +5032,21 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B189" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C189">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B190" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C190">
         <v>65</v>
@@ -5047,10 +5054,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B191" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C191">
         <v>65</v>
@@ -5058,10 +5065,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B192" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C192">
         <v>65</v>
@@ -5069,10 +5076,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B193" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C193">
         <v>65</v>
@@ -5080,10 +5087,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B194" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C194">
         <v>65</v>
@@ -5091,21 +5098,21 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B195" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C195">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B196" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C196">
         <v>62</v>
@@ -5113,10 +5120,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B197" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C197">
         <v>62</v>
@@ -5124,10 +5131,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B198" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C198">
         <v>62</v>
@@ -5135,10 +5142,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B199" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C199">
         <v>62</v>
@@ -5146,21 +5153,21 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B200" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C200">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B201" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C201">
         <v>68</v>
@@ -5168,10 +5175,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C202">
         <v>68</v>
@@ -5179,10 +5186,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B203" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C203">
         <v>68</v>
@@ -5190,10 +5197,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B204" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C204">
         <v>68</v>
@@ -5201,21 +5208,21 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B205" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C205">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B206" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C206">
         <v>65</v>
@@ -5223,10 +5230,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B207" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C207">
         <v>65</v>
@@ -5234,10 +5241,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B208" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C208">
         <v>65</v>
@@ -5245,10 +5252,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B209" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C209">
         <v>65</v>
@@ -5256,10 +5263,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B210" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C210">
         <v>65</v>
@@ -5267,10 +5274,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B211" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C211">
         <v>65</v>
@@ -5278,21 +5285,21 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B212" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C212">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B213" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C213">
         <v>62</v>
@@ -5300,10 +5307,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B214" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C214">
         <v>62</v>
@@ -5311,10 +5318,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B215" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C215">
         <v>62</v>
@@ -5322,21 +5329,21 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B216" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C216">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B217" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C217">
         <v>68</v>
@@ -5344,10 +5351,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B218" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C218">
         <v>68</v>
@@ -5355,10 +5362,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B219" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C219">
         <v>68</v>
@@ -5366,21 +5373,21 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B220" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C220">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B221" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C221">
         <v>65</v>
@@ -5388,10 +5395,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B222" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C222">
         <v>65</v>
@@ -5399,10 +5406,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B223" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C223">
         <v>65</v>
@@ -5410,10 +5417,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B224" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C224">
         <v>65</v>
@@ -5421,21 +5428,21 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B225" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C225">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B226" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C226">
         <v>62</v>
@@ -5443,10 +5450,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B227" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C227">
         <v>62</v>
@@ -5454,10 +5461,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B228" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C228">
         <v>62</v>
@@ -5465,21 +5472,21 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B229" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C229">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B230" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C230">
         <v>68</v>
@@ -5487,21 +5494,21 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B231" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C231">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B232" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C232">
         <v>65</v>
@@ -5509,10 +5516,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B233" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C233">
         <v>65</v>
@@ -5520,10 +5527,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B234" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C234">
         <v>65</v>
@@ -5531,10 +5538,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B235" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C235">
         <v>65</v>
@@ -5542,10 +5549,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B236" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C236">
         <v>65</v>
@@ -5553,10 +5560,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B237" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C237">
         <v>65</v>
@@ -5564,21 +5571,21 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B238" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C238">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B239" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C239">
         <v>62</v>
@@ -5586,10 +5593,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B240" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C240">
         <v>62</v>
@@ -5597,10 +5604,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B241" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C241">
         <v>62</v>
@@ -5608,10 +5615,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B242" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C242">
         <v>62</v>
@@ -5619,21 +5626,21 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B243" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C243">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B244" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C244">
         <v>68</v>
@@ -5641,10 +5648,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B245" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C245">
         <v>68</v>
@@ -5652,10 +5659,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B246" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C246">
         <v>68</v>
@@ -5663,10 +5670,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B247" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C247">
         <v>68</v>
@@ -5674,10 +5681,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B248" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C248">
         <v>68</v>
@@ -5685,10 +5692,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B249" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C249">
         <v>68</v>
@@ -5696,10 +5703,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B250" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C250">
         <v>68</v>
@@ -5707,21 +5714,21 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B251" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C251">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B252" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C252">
         <v>65</v>
@@ -5729,21 +5736,21 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B253" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C253">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B254" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C254">
         <v>62</v>
@@ -5751,10 +5758,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B255" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C255">
         <v>62</v>
@@ -5762,21 +5769,21 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B256" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C256">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B257" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C257">
         <v>68</v>
@@ -5784,10 +5791,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B258" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C258">
         <v>68</v>
@@ -5795,10 +5802,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B259" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C259">
         <v>68</v>
@@ -5806,21 +5813,21 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B260" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C260">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B261" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C261">
         <v>62</v>
@@ -5828,10 +5835,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B262" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C262">
         <v>62</v>
@@ -5839,10 +5846,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B263" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C263">
         <v>62</v>
@@ -5850,10 +5857,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B264" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C264">
         <v>62</v>
@@ -5861,21 +5868,21 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B265" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C265">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B266" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C266">
         <v>68</v>
@@ -5883,10 +5890,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B267" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C267">
         <v>68</v>
@@ -5894,10 +5901,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B268" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C268">
         <v>68</v>
@@ -5905,10 +5912,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B269" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C269">
         <v>68</v>
@@ -5916,21 +5923,21 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B270" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C270">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B271" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C271">
         <v>65</v>
@@ -5938,10 +5945,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B272" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C272">
         <v>65</v>
@@ -5949,10 +5956,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B273" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C273">
         <v>65</v>
@@ -5960,10 +5967,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B274" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C274">
         <v>65</v>
@@ -5971,10 +5978,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B275" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C275">
         <v>65</v>
@@ -5982,10 +5989,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B276" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C276">
         <v>65</v>
@@ -5993,87 +6000,87 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>182</v>
+        <v>851</v>
       </c>
       <c r="B277" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C277">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B278" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C278">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B279" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C279">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B280" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C280">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B281" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C281">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B282" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C282">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B283" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C283">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B284" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C284">
         <v>62</v>
@@ -6081,10 +6088,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B285" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C285">
         <v>62</v>
@@ -6092,10 +6099,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B286" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C286">
         <v>62</v>
@@ -6103,10 +6110,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B287" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C287">
         <v>62</v>
@@ -6114,10 +6121,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B288" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C288">
         <v>62</v>
@@ -6125,10 +6132,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B289" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C289">
         <v>62</v>
@@ -6136,10 +6143,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B290" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C290">
         <v>62</v>
@@ -6147,10 +6154,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B291" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C291">
         <v>62</v>
@@ -6158,10 +6165,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B292" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C292">
         <v>62</v>
@@ -6169,10 +6176,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B293" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C293">
         <v>62</v>
@@ -6180,21 +6187,21 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B294" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C294">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B295" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C295">
         <v>68</v>
@@ -6202,10 +6209,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B296" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C296">
         <v>68</v>
@@ -6213,10 +6220,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B297" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C297">
         <v>68</v>
@@ -6224,10 +6231,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B298" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C298">
         <v>68</v>
@@ -6235,10 +6242,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B299" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C299">
         <v>68</v>
@@ -6246,10 +6253,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B300" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C300">
         <v>68</v>
@@ -6257,10 +6264,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B301" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C301">
         <v>68</v>
@@ -6268,10 +6275,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B302" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C302">
         <v>68</v>
@@ -6279,10 +6286,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B303" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C303">
         <v>68</v>
@@ -6290,21 +6297,21 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B304" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C304">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B305" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C305">
         <v>62</v>
@@ -6312,21 +6319,21 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B306" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C306">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B307" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C307">
         <v>68</v>
@@ -6334,32 +6341,32 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B308" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C308">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B309" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C309">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B310" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C310">
         <v>62</v>
@@ -6367,21 +6374,21 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B311" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C311">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B312" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C312">
         <v>68</v>
@@ -6389,21 +6396,21 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B313" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C313">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B314" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C314">
         <v>65</v>
@@ -6411,21 +6418,21 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B315" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C315">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B316" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C316">
         <v>62</v>
@@ -6433,10 +6440,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B317" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C317">
         <v>62</v>
@@ -6444,10 +6451,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B318" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C318">
         <v>62</v>
@@ -6455,10 +6462,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B319" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C319">
         <v>62</v>
@@ -6466,10 +6473,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B320" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C320">
         <v>62</v>
@@ -6477,10 +6484,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B321" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C321">
         <v>62</v>
@@ -6488,10 +6495,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B322" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C322">
         <v>62</v>
@@ -6499,21 +6506,21 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B323" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C323">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B324" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C324">
         <v>68</v>
@@ -6521,10 +6528,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B325" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C325">
         <v>68</v>
@@ -6532,10 +6539,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B326" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C326">
         <v>68</v>
@@ -6543,10 +6550,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B327" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C327">
         <v>68</v>
@@ -6554,10 +6561,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B328" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C328">
         <v>68</v>
@@ -6565,10 +6572,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B329" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C329">
         <v>68</v>
@@ -6576,10 +6583,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B330" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C330">
         <v>68</v>
@@ -6587,10 +6594,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B331" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C331">
         <v>68</v>
@@ -6598,10 +6605,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B332" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C332">
         <v>68</v>
@@ -6609,21 +6616,21 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B333" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C333">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B334" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C334">
         <v>65</v>
@@ -6631,21 +6638,21 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B335" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C335">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B336" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C336">
         <v>62</v>
@@ -6653,10 +6660,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B337" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C337">
         <v>62</v>
@@ -6664,21 +6671,21 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B338" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C338">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B339" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C339">
         <v>68</v>
@@ -6686,10 +6693,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B340" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C340">
         <v>68</v>
@@ -6697,21 +6704,21 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B341" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C341">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B342" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C342">
         <v>62</v>
@@ -6719,32 +6726,32 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B343" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C343">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B344" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C344">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B345" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C345">
         <v>65</v>
@@ -6752,10 +6759,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B346" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C346">
         <v>65</v>
@@ -6763,10 +6770,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B347" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C347">
         <v>65</v>
@@ -6774,21 +6781,21 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B348" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C348">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B349" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C349">
         <v>62</v>
@@ -6796,10 +6803,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B350" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C350">
         <v>62</v>
@@ -6807,10 +6814,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B351" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C351">
         <v>62</v>
@@ -6818,10 +6825,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B352" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C352">
         <v>62</v>
@@ -6829,21 +6836,21 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B353" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C353">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B354" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C354">
         <v>68</v>
@@ -6851,10 +6858,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B355" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C355">
         <v>68</v>
@@ -6862,10 +6869,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B356" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C356">
         <v>68</v>
@@ -6873,10 +6880,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B357" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C357">
         <v>68</v>
@@ -6884,21 +6891,21 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B358" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C358">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B359" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C359">
         <v>62</v>
@@ -6906,10 +6913,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B360" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C360">
         <v>62</v>
@@ -6917,10 +6924,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B361" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C361">
         <v>62</v>
@@ -6928,10 +6935,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B362" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C362">
         <v>62</v>
@@ -6939,21 +6946,21 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B363" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C363">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B364" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C364">
         <v>68</v>
@@ -6961,10 +6968,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B365" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C365">
         <v>68</v>
@@ -6972,10 +6979,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B366" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C366">
         <v>68</v>
@@ -6983,10 +6990,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B367" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C367">
         <v>68</v>
@@ -6994,21 +7001,21 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B368" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C368">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B369" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C369">
         <v>62</v>
@@ -7016,10 +7023,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B370" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C370">
         <v>62</v>
@@ -7027,21 +7034,21 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B371" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C371">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B372" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C372">
         <v>68</v>
@@ -7049,10 +7056,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B373" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C373">
         <v>68</v>
@@ -7060,21 +7067,21 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B374" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C374">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B375" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C375">
         <v>62</v>
@@ -7082,10 +7089,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B376" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C376">
         <v>62</v>
@@ -7093,10 +7100,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B377" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C377">
         <v>62</v>
@@ -7104,10 +7111,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B378" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C378">
         <v>62</v>
@@ -7115,21 +7122,21 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B379" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C379">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B380" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C380">
         <v>68</v>
@@ -7137,10 +7144,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B381" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C381">
         <v>68</v>
@@ -7148,10 +7155,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B382" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C382">
         <v>68</v>
@@ -7159,32 +7166,32 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B383" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C383">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B384" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C384">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B385" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C385">
         <v>62</v>
@@ -7192,10 +7199,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B386" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C386">
         <v>62</v>
@@ -7203,10 +7210,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B387" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C387">
         <v>62</v>
@@ -7214,21 +7221,21 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B388" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C388">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B389" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C389">
         <v>68</v>
@@ -7236,10 +7243,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B390" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C390">
         <v>68</v>
@@ -7247,10 +7254,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B391" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C391">
         <v>68</v>
@@ -7258,32 +7265,32 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B392" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C392">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B393" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C393">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B394" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C394">
         <v>62</v>
@@ -7291,10 +7298,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B395" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C395">
         <v>62</v>
@@ -7302,10 +7309,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B396" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C396">
         <v>62</v>
@@ -7313,21 +7320,21 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B397" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C397">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B398" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C398">
         <v>68</v>
@@ -7335,10 +7342,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B399" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C399">
         <v>68</v>
@@ -7346,10 +7353,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B400" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C400">
         <v>68</v>
@@ -7357,21 +7364,21 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B401" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C401">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B402" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C402">
         <v>62</v>
@@ -7379,10 +7386,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B403" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C403">
         <v>62</v>
@@ -7390,21 +7397,21 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B404" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C404">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B405" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C405">
         <v>68</v>
@@ -7412,10 +7419,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B406" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C406">
         <v>68</v>
@@ -7423,43 +7430,43 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B407" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C407">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B408" t="s">
         <v>391</v>
       </c>
       <c r="C408">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B409" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C409">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B410" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C410">
         <v>62</v>
@@ -7467,10 +7474,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B411" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C411">
         <v>62</v>
@@ -7478,10 +7485,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B412" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C412">
         <v>62</v>
@@ -7489,21 +7496,21 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B413" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C413">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B414" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C414">
         <v>68</v>
@@ -7511,10 +7518,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B415" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C415">
         <v>68</v>
@@ -7522,21 +7529,21 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B416" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C416">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B417" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C417">
         <v>62</v>
@@ -7544,10 +7551,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B418" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C418">
         <v>62</v>
@@ -7555,10 +7562,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B419" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C419">
         <v>62</v>
@@ -7566,21 +7573,21 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B420" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C420">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B421" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C421">
         <v>68</v>
@@ -7588,10 +7595,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B422" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C422">
         <v>68</v>
@@ -7599,10 +7606,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B423" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C423">
         <v>68</v>
@@ -7610,21 +7617,21 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B424" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C424">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B425" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C425">
         <v>62</v>
@@ -7632,10 +7639,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B426" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C426">
         <v>62</v>
@@ -7643,10 +7650,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B427" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C427">
         <v>62</v>
@@ -7654,10 +7661,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B428" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C428">
         <v>62</v>
@@ -7665,10 +7672,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B429" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C429">
         <v>62</v>
@@ -7676,21 +7683,21 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B430" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C430">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C431">
         <v>68</v>
@@ -7698,10 +7705,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C432">
         <v>68</v>
@@ -7709,10 +7716,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C433">
         <v>68</v>
@@ -7720,10 +7727,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B434" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C434">
         <v>68</v>
@@ -7731,10 +7738,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C435">
         <v>68</v>
@@ -7742,32 +7749,32 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B436" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C436">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B437" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C437">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C438">
         <v>62</v>
@@ -7775,10 +7782,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C439">
         <v>62</v>
@@ -7786,10 +7793,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C440">
         <v>62</v>
@@ -7797,10 +7804,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B441" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C441">
         <v>62</v>
@@ -7808,10 +7815,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B442" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C442">
         <v>62</v>
@@ -7819,21 +7826,21 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C443">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B444" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C444">
         <v>68</v>
@@ -7841,10 +7848,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B445" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C445">
         <v>68</v>
@@ -7852,21 +7859,21 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B446" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C446">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B447" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C447">
         <v>65</v>
@@ -7874,10 +7881,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B448" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C448">
         <v>65</v>
@@ -7885,10 +7892,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B449" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C449">
         <v>65</v>
@@ -7896,21 +7903,21 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B450" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C450">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B451" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C451">
         <v>62</v>
@@ -7918,10 +7925,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B452" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C452">
         <v>62</v>
@@ -7929,10 +7936,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C453">
         <v>62</v>
@@ -7940,10 +7947,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B454" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C454">
         <v>62</v>
@@ -7951,10 +7958,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B455" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C455">
         <v>62</v>
@@ -7962,21 +7969,21 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B456" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C456">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B457" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C457">
         <v>68</v>
@@ -7984,10 +7991,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B458" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C458">
         <v>68</v>
@@ -7995,10 +8002,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B459" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C459">
         <v>68</v>
@@ -8006,10 +8013,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B460" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C460">
         <v>68</v>
@@ -8017,10 +8024,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B461" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C461">
         <v>68</v>
@@ -8028,21 +8035,21 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B462" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C462">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B463" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C463">
         <v>65</v>
@@ -8050,10 +8057,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B464" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C464">
         <v>65</v>
@@ -8061,10 +8068,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B465" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C465">
         <v>65</v>
@@ -8072,10 +8079,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B466" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C466">
         <v>65</v>
@@ -8083,10 +8090,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B467" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C467">
         <v>65</v>
@@ -8094,10 +8101,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B468" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C468">
         <v>65</v>
@@ -8105,21 +8112,21 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B469" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C469">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B470" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C470">
         <v>62</v>
@@ -8127,10 +8134,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B471" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C471">
         <v>62</v>
@@ -8138,10 +8145,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B472" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C472">
         <v>62</v>
@@ -8149,10 +8156,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B473" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C473">
         <v>62</v>
@@ -8160,21 +8167,21 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B474" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C474">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B475" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C475">
         <v>68</v>
@@ -8182,10 +8189,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B476" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C476">
         <v>68</v>
@@ -8193,10 +8200,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B477" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C477">
         <v>68</v>
@@ -8204,10 +8211,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B478" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C478">
         <v>68</v>
@@ -8215,21 +8222,21 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B479" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C479">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B480" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C480">
         <v>65</v>
@@ -8237,10 +8244,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B481" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C481">
         <v>65</v>
@@ -8248,10 +8255,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B482" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C482">
         <v>65</v>
@@ -8259,10 +8266,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B483" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C483">
         <v>65</v>
@@ -8270,10 +8277,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B484" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C484">
         <v>65</v>
@@ -8281,10 +8288,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B485" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C485">
         <v>65</v>
@@ -8292,10 +8299,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B486" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C486">
         <v>65</v>
@@ -8303,10 +8310,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B487" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C487">
         <v>65</v>
@@ -8314,10 +8321,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B488" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C488">
         <v>65</v>
@@ -8325,21 +8332,21 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B489" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C489">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B490" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C490">
         <v>68</v>
@@ -8347,10 +8354,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B491" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C491">
         <v>68</v>
@@ -8358,10 +8365,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B492" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C492">
         <v>68</v>
@@ -8369,10 +8376,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B493" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C493">
         <v>68</v>
@@ -8380,10 +8387,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B494" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C494">
         <v>68</v>
@@ -8391,10 +8398,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B495" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C495">
         <v>68</v>
@@ -8402,10 +8409,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B496" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C496">
         <v>68</v>
@@ -8413,10 +8420,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B497" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C497">
         <v>68</v>
@@ -8424,10 +8431,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B498" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C498">
         <v>68</v>
@@ -8435,10 +8442,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B499" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C499">
         <v>68</v>
@@ -8446,10 +8453,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B500" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C500">
         <v>68</v>
@@ -8457,21 +8464,21 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B501" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C501">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B502" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C502">
         <v>65</v>
@@ -8479,10 +8486,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B503" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C503">
         <v>65</v>
@@ -8490,10 +8497,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B504" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C504">
         <v>65</v>
@@ -8501,10 +8508,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B505" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C505">
         <v>65</v>
@@ -8512,10 +8519,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B506" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C506">
         <v>65</v>
@@ -8523,10 +8530,10 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B507" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C507">
         <v>65</v>
@@ -8534,32 +8541,32 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B508" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C508">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B509" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C509">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B510" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C510">
         <v>65</v>
@@ -8567,10 +8574,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B511" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C511">
         <v>65</v>
@@ -8578,23 +8585,34 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B512" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C512">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B513" t="s">
         <v>575</v>
       </c>
       <c r="C513">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B514" t="s">
+        <v>575</v>
+      </c>
+      <c r="C514">
         <v>68</v>
       </c>
     </row>
